--- a/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="708" windowWidth="13680" windowHeight="11196" tabRatio="847" firstSheet="1" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="13680" windowHeight="11130" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
   <externalReferences>
     <externalReference r:id="rId19"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -775,9 +770,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -804,6 +799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -923,7 +919,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1039,7 +1035,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1155,7 +1151,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1271,7 +1267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1287,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62907904"/>
-        <c:axId val="133455168"/>
+        <c:axId val="90151424"/>
+        <c:axId val="101591872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62907904"/>
+        <c:axId val="90151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,13 +1309,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133455168"/>
+        <c:crossAx val="101591872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133455168"/>
+        <c:axId val="101591872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,19 +1347,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62907904"/>
+        <c:crossAx val="90151424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1378,9 +1377,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1407,6 +1406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1526,7 +1526,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1642,7 +1642,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1758,7 +1758,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1874,7 +1874,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1890,11 +1890,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62909952"/>
-        <c:axId val="133588096"/>
+        <c:axId val="101334528"/>
+        <c:axId val="101594176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62909952"/>
+        <c:axId val="101334528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,13 +1916,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133588096"/>
+        <c:crossAx val="101594176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133588096"/>
+        <c:axId val="101594176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,19 +1954,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62909952"/>
+        <c:crossAx val="101334528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1981,9 +1984,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2135,7 +2138,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91EA-4BE3-8D39-C1A7A45459C7}"/>
             </c:ext>
@@ -2150,11 +2153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163129856"/>
-        <c:axId val="133590400"/>
+        <c:axId val="167544832"/>
+        <c:axId val="101596480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163129856"/>
+        <c:axId val="167544832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133590400"/>
+        <c:crossAx val="101596480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133590400"/>
+        <c:axId val="101596480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163129856"/>
+        <c:crossAx val="167544832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,9 +2222,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2398,7 +2401,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2563,7 +2566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2728,7 +2731,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2743,11 +2746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163478016"/>
-        <c:axId val="133592128"/>
+        <c:axId val="89238016"/>
+        <c:axId val="103249536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163478016"/>
+        <c:axId val="89238016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133592128"/>
+        <c:crossAx val="103249536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133592128"/>
+        <c:axId val="103249536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163478016"/>
+        <c:crossAx val="89238016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,7 +2820,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2856,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2899,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2940,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,31 +2990,10 @@
           <cell r="S1" t="str">
             <v>Duct Cost</v>
           </cell>
-          <cell r="T1" t="str">
-            <v>Fiber Cost</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>CO cost</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>RN Cost</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>FTTC_GPON_25</v>
-          </cell>
-          <cell r="S3">
-            <v>146337.9</v>
-          </cell>
-          <cell r="T3">
-            <v>18.840229999999998</v>
-          </cell>
-          <cell r="U3">
-            <v>3056.8888888888887</v>
-          </cell>
-          <cell r="V3">
-            <v>158553.60000000001</v>
           </cell>
           <cell r="X3">
             <v>307967.22911888885</v>
@@ -3021,18 +3003,6 @@
           <cell r="A4" t="str">
             <v>FTTB_XGPON_50</v>
           </cell>
-          <cell r="S4">
-            <v>146337.9</v>
-          </cell>
-          <cell r="T4">
-            <v>12.814590000000001</v>
-          </cell>
-          <cell r="U4">
-            <v>6405.333333333333</v>
-          </cell>
-          <cell r="V4">
-            <v>63750.8</v>
-          </cell>
           <cell r="X4">
             <v>216506.84792333335</v>
           </cell>
@@ -3040,18 +3010,6 @@
         <row r="5">
           <cell r="A5" t="str">
             <v>FTTB_UDWDM_50</v>
-          </cell>
-          <cell r="S5">
-            <v>78872.09</v>
-          </cell>
-          <cell r="T5">
-            <v>14.612120000000001</v>
-          </cell>
-          <cell r="U5">
-            <v>5299.166666666667</v>
-          </cell>
-          <cell r="V5">
-            <v>60860</v>
           </cell>
           <cell r="X5">
             <v>145045.86878666666</v>
@@ -3061,18 +3019,6 @@
           <cell r="A6" t="str">
             <v>FTTH_UDWDM_100</v>
           </cell>
-          <cell r="S6">
-            <v>78872.09</v>
-          </cell>
-          <cell r="T6">
-            <v>14.612120000000001</v>
-          </cell>
-          <cell r="U6">
-            <v>5866.833333333333</v>
-          </cell>
-          <cell r="V6">
-            <v>133338.59999999998</v>
-          </cell>
           <cell r="X6">
             <v>218092.13545333332</v>
           </cell>
@@ -3080,18 +3026,6 @@
         <row r="7">
           <cell r="A7" t="str">
             <v>FTTH_XGPON_100</v>
-          </cell>
-          <cell r="S7">
-            <v>146337.9</v>
-          </cell>
-          <cell r="T7">
-            <v>12.814590000000001</v>
-          </cell>
-          <cell r="U7">
-            <v>12618.666666666666</v>
-          </cell>
-          <cell r="V7">
-            <v>129280.20000000001</v>
           </cell>
           <cell r="X7">
             <v>288249.58125666669</v>
@@ -3101,18 +3035,6 @@
           <cell r="A8" t="str">
             <v>FTTC_GPON_100</v>
           </cell>
-          <cell r="S8">
-            <v>146337.9</v>
-          </cell>
-          <cell r="T8">
-            <v>18.840229999999998</v>
-          </cell>
-          <cell r="U8">
-            <v>6426.666666666667</v>
-          </cell>
-          <cell r="V8">
-            <v>195086.4</v>
-          </cell>
           <cell r="X8">
             <v>347869.80689666665</v>
           </cell>
@@ -3120,18 +3042,6 @@
         <row r="9">
           <cell r="A9" t="str">
             <v>FTTB_XGPON_100</v>
-          </cell>
-          <cell r="S9">
-            <v>146337.9</v>
-          </cell>
-          <cell r="T9">
-            <v>12.814590000000001</v>
-          </cell>
-          <cell r="U9">
-            <v>12818.666666666666</v>
-          </cell>
-          <cell r="V9">
-            <v>61989.9</v>
           </cell>
           <cell r="X9">
             <v>221159.28125666664</v>
@@ -3141,18 +3051,6 @@
           <cell r="A10" t="str">
             <v>FTTB_UDWDM_100</v>
           </cell>
-          <cell r="S10">
-            <v>78872.09</v>
-          </cell>
-          <cell r="T10">
-            <v>14.612120000000001</v>
-          </cell>
-          <cell r="U10">
-            <v>5866.833333333333</v>
-          </cell>
-          <cell r="V10">
-            <v>63060</v>
-          </cell>
           <cell r="X10">
             <v>147813.53545333334</v>
           </cell>
@@ -3160,18 +3058,6 @@
         <row r="11">
           <cell r="A11" t="str">
             <v>FTTC_Hybridpon_25</v>
-          </cell>
-          <cell r="S11">
-            <v>114876.4</v>
-          </cell>
-          <cell r="T11">
-            <v>12.59423</v>
-          </cell>
-          <cell r="U11">
-            <v>4000</v>
-          </cell>
-          <cell r="V11">
-            <v>96145</v>
           </cell>
           <cell r="X11">
             <v>215033.99423000001</v>
@@ -3181,18 +3067,6 @@
           <cell r="A12" t="str">
             <v>FTTB_Hybridpon_50</v>
           </cell>
-          <cell r="S12">
-            <v>115530.5</v>
-          </cell>
-          <cell r="T12">
-            <v>12.21167</v>
-          </cell>
-          <cell r="U12">
-            <v>7280</v>
-          </cell>
-          <cell r="V12">
-            <v>55966.5</v>
-          </cell>
           <cell r="X12">
             <v>178789.21166999999</v>
           </cell>
@@ -3200,18 +3074,6 @@
         <row r="13">
           <cell r="A13" t="str">
             <v>FTTH_Hybridpon_100</v>
-          </cell>
-          <cell r="S13">
-            <v>115530.5</v>
-          </cell>
-          <cell r="T13">
-            <v>25.08727</v>
-          </cell>
-          <cell r="U13">
-            <v>14160</v>
-          </cell>
-          <cell r="V13">
-            <v>168466.5</v>
           </cell>
           <cell r="X13">
             <v>298182.08727000002</v>
@@ -3221,18 +3083,6 @@
           <cell r="A14" t="str">
             <v>FTTC_Hybridpon_100</v>
           </cell>
-          <cell r="S14">
-            <v>114876.4</v>
-          </cell>
-          <cell r="T14">
-            <v>12.59423</v>
-          </cell>
-          <cell r="U14">
-            <v>14800</v>
-          </cell>
-          <cell r="V14">
-            <v>105356</v>
-          </cell>
           <cell r="X14">
             <v>235044.99423000001</v>
           </cell>
@@ -3240,18 +3090,6 @@
         <row r="15">
           <cell r="A15" t="str">
             <v>FTTB_Hybridpon_100</v>
-          </cell>
-          <cell r="S15">
-            <v>115530.5</v>
-          </cell>
-          <cell r="T15">
-            <v>12.21167</v>
-          </cell>
-          <cell r="U15">
-            <v>14160</v>
-          </cell>
-          <cell r="V15">
-            <v>66966.5</v>
           </cell>
           <cell r="X15">
             <v>196669.21166999999</v>
@@ -3323,7 +3161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3356,26 +3194,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3408,23 +3229,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3603,31 +3407,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3547,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3822,7 +3626,7 @@
         <v>783086.74014850263</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3900,7 +3704,7 @@
         <v>488901.15606202511</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3974,7 +3778,7 @@
         <v>433198.37939566193</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -4052,7 +3856,7 @@
         <v>450452.37939566193</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -4130,7 +3934,7 @@
         <v>652800.75606202509</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -4206,7 +4010,7 @@
         <v>882409.14014850277</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -4282,7 +4086,7 @@
         <v>501952.35606202506</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -4357,7 +4161,7 @@
         <v>449448.37939566193</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -4434,7 +4238,7 @@
         <v>542001.60963587556</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4510,7 +4314,7 @@
         <v>458559.26274949865</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4587,7 +4391,7 @@
         <v>621293.77874949854</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4663,7 +4467,7 @@
         <v>593031.60963587556</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4740,13 +4544,13 @@
         <v>482559.26274949865</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4760,12 +4564,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4785,7 +4589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4796,7 +4600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -4828,7 +4632,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6273,7 +6077,7 @@
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7718,9 +7522,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -9166,7 +8970,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10611,7 +10415,7 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12056,7 +11860,7 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13501,7 +13305,7 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14946,7 +14750,7 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16387,30 +16191,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -16457,7 +16261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -16517,7 +16321,7 @@
         <v>196669.21166999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -16568,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -16617,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16666,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16713,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -16760,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16809,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -16857,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -16905,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -16956,7 +16760,7 @@
         <v>17880</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -17005,7 +16809,7 @@
         <v>17880</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -17052,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17101,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -17149,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -17178,11 +16982,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -17319,22 +17123,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -17414,7 +17218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -17517,7 +17321,7 @@
         <v>-48948.476920599649</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17619,7 +17423,7 @@
         <v>-43571.342655090586</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17730,7 +17534,7 @@
         <v>-37964.03051289227</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17842,7 +17646,7 @@
         <v>-31537.54840014999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17954,7 +17758,7 @@
         <v>-23441.347531315922</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -18066,7 +17870,7 @@
         <v>-12212.576712097187</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -18178,7 +17982,7 @@
         <v>4091.0378357845698</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -18289,7 +18093,7 @@
         <v>27186.872368185366</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -18400,7 +18204,7 @@
         <v>55650.375912999982</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -18511,7 +18315,7 @@
         <v>80652.986410715181</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -18623,7 +18427,7 @@
         <v>89726.534788819219</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18734,7 +18538,7 @@
         <v>84770.287370808801</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18845,7 +18649,7 @@
         <v>77186.251843826962</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18956,7 +18760,7 @@
         <v>70193.6516659224</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -19067,7 +18871,7 @@
         <v>63818.730555487324</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -19178,7 +18982,7 @@
         <v>58022.773186900609</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -19289,7 +19093,7 @@
         <v>52750.587174084583</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -19391,7 +19195,7 @@
         <v>47957.453385194603</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -19493,7 +19297,7 @@
         <v>43597.68489563145</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -19595,7 +19399,7 @@
         <v>39634.258996028584</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19697,7 +19501,7 @@
         <v>36031.144541844173</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -19708,7 +19512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -19716,7 +19520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19774,7 +19578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19809,7 +19613,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19838,7 +19642,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19867,7 +19671,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19896,7 +19700,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19925,7 +19729,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19968,7 +19772,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19997,7 +19801,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -20026,7 +19830,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -20055,7 +19859,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -20084,7 +19888,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -20113,7 +19917,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -20142,7 +19946,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -20171,7 +19975,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -20200,7 +20004,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -20229,7 +20033,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -20258,7 +20062,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -20287,7 +20091,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -20316,7 +20120,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -20345,7 +20149,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -20374,12 +20178,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -20402,7 +20206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -20431,7 +20235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -20460,7 +20264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -20489,7 +20293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -20518,7 +20322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -20547,7 +20351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -20576,7 +20380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -20605,7 +20409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -20634,7 +20438,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -20663,7 +20467,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -20692,7 +20496,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -20721,7 +20525,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -20750,7 +20554,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -20779,7 +20583,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -20808,7 +20612,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -20837,7 +20641,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -20866,7 +20670,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -20895,7 +20699,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -20924,7 +20728,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -20953,7 +20757,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -20982,7 +20786,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -21025,9 +20829,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -22474,7 +22278,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23919,7 +23723,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25364,7 +25168,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26809,7 +26613,7 @@
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28254,7 +28058,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
   <si>
     <t>Technology Name</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Approx OPEX per year</t>
+  </si>
+  <si>
+    <t>384090.367674523+20*5000</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>220258.5472510673</c:v>
@@ -876,7 +879,7 @@
                   <c:v>220258.5472510673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>220258.5472510673</c:v>
@@ -885,7 +888,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -1007,13 +1010,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241088.66761378772</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117354.15161378775</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1105,7 @@
                   <c:v>22950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22950</c:v>
+                  <c:v>160450</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93800</c:v>
@@ -1218,7 +1221,7 @@
                   <c:v>133630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150884</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>215594</c:v>
@@ -1239,7 +1242,7 @@
                   <c:v>135438.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150438.20000000001</c:v>
+                  <c:v>90438.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>245231.2</c:v>
@@ -1266,11 +1269,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63645696"/>
-        <c:axId val="95949888"/>
+        <c:axId val="93586432"/>
+        <c:axId val="83419136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63645696"/>
+        <c:axId val="93586432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95949888"/>
+        <c:crossAx val="83419136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95949888"/>
+        <c:axId val="83419136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63645696"/>
+        <c:crossAx val="93586432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,7 +1471,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>220258.5472510673</c:v>
@@ -1483,7 +1486,7 @@
                   <c:v>220258.5472510673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>220258.5472510673</c:v>
@@ -1492,7 +1495,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -1614,13 +1617,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241088.66761378772</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117354.15161378775</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1712,7 @@
                   <c:v>22950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22950</c:v>
+                  <c:v>160450</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93800</c:v>
@@ -1825,7 +1828,7 @@
                   <c:v>156580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173834</c:v>
+                  <c:v>371360</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>309394</c:v>
@@ -1846,7 +1849,7 @@
                   <c:v>159438.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>198438.2</c:v>
+                  <c:v>138438.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>291511.2</c:v>
@@ -1873,11 +1876,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63729664"/>
-        <c:axId val="95952192"/>
+        <c:axId val="156402176"/>
+        <c:axId val="83423168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63729664"/>
+        <c:axId val="156402176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95952192"/>
+        <c:crossAx val="83423168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95952192"/>
+        <c:axId val="83423168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63729664"/>
+        <c:crossAx val="156402176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,7 +2081,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -2090,7 +2093,7 @@
                   <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762708578561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11938.918689039821</c:v>
@@ -2137,11 +2140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63352832"/>
-        <c:axId val="63915712"/>
+        <c:axId val="81170432"/>
+        <c:axId val="83425472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63352832"/>
+        <c:axId val="81170432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63915712"/>
+        <c:crossAx val="83425472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63915712"/>
+        <c:axId val="83425472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63352832"/>
+        <c:crossAx val="81170432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2749,13 +2752,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="T3" s="11">
         <v>181054.59289743542</v>
@@ -2831,10 +2834,10 @@
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>783086.74014850263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>685320.49758500769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>488901.15606202511</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>433198.37939566193</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>658286.15266324603</v>
+        <v>758286.15266324603</v>
       </c>
       <c r="S6" s="11">
         <v>136195.87571102803</v>
@@ -3050,21 +3053,21 @@
         <v>140422.50368463391</v>
       </c>
       <c r="U6" s="11">
-        <v>22950</v>
+        <v>160450</v>
       </c>
       <c r="V6" s="11">
-        <v>150884</v>
+        <v>210910</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>173834</v>
+        <v>371360</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>450452.37939566193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>647978.37939566188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3118,8 +3121,8 @@
       <c r="Q7" s="7">
         <v>85582.633114971599</v>
       </c>
-      <c r="R7" s="7">
-        <v>384090.36767452297</v>
+      <c r="R7" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="S7" s="11">
         <v>220258.5472510673</v>
@@ -3142,7 +3145,7 @@
         <v>652800.75606202509</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="T8" s="11">
         <v>181054.59289743542</v>
@@ -3215,10 +3218,10 @@
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>882409.14014850277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>784642.89758500771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>501952.35606202506</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>449448.37939566193</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>387592.626526276</v>
       </c>
       <c r="S11" s="11">
-        <v>180489.8749974439</v>
+        <v>81959.434330663411</v>
       </c>
       <c r="T11" s="11">
         <v>121030.53463843174</v>
@@ -3443,10 +3446,10 @@
       </c>
       <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>542001.60963587556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>443471.16896909516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>458559.26274949865</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3575,31 +3578,30 @@
         <v>233483.63773783101</v>
       </c>
       <c r="R13" s="7">
-        <f>$Q$12+20*$B$13</f>
-        <v>274463.63773783098</v>
+        <v>1012244.723172249</v>
       </c>
       <c r="S13" s="11">
         <v>181766.91113571086</v>
       </c>
       <c r="T13" s="11">
-        <v>241088.66761378772</v>
+        <v>99287.142993292597</v>
       </c>
       <c r="U13" s="11">
         <v>48000</v>
       </c>
       <c r="V13" s="11">
-        <v>150438.20000000001</v>
+        <v>90438.2</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>198438.2</v>
+        <v>138438.20000000001</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>621293.77874949854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>419492.25412900344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>593031.60963587556</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3728,14 +3730,13 @@
         <v>233483.63773783101</v>
       </c>
       <c r="R15" s="7">
-        <f>$Q$12</f>
-        <v>233483.63773783101</v>
+        <v>368464.72317224898</v>
       </c>
       <c r="S15" s="11">
         <v>181766.91113571086</v>
       </c>
       <c r="T15" s="11">
-        <v>117354.15161378775</v>
+        <v>91410.786993292611</v>
       </c>
       <c r="U15" s="11">
         <v>48000</v>
@@ -3749,16 +3750,124 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>482559.26274949865</v>
-      </c>
-    </row>
-    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>456615.89812900347</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f>M3+N3+O3</f>
+        <v>154545.71095359759</v>
+      </c>
+      <c r="N32">
+        <f>P3+Q3+R3</f>
+        <v>942011.40945595957</v>
+      </c>
+    </row>
+    <row r="33" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" ref="M33:M49" si="3">M4+N4+O4</f>
+        <v>154545.71095359759</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N44" si="4">P4+Q4+R4</f>
+        <v>640729.49433380761</v>
+      </c>
+    </row>
+    <row r="34" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>95562.640830078599</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>730606.15860891738</v>
+      </c>
+    </row>
+    <row r="35" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>95562.640830078599</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>830606.15860891738</v>
+      </c>
+    </row>
+    <row r="36" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>154545.71095359759</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>154545.71095359759</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>942011.40945595957</v>
+      </c>
+    </row>
+    <row r="38" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>154545.71095359759</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>640729.49433380761</v>
+      </c>
+    </row>
+    <row r="39" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>95562.640830078599</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>730606.15860891738</v>
+      </c>
+    </row>
+    <row r="40" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>126641.78711580401</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>629711.41851421306</v>
+      </c>
+    </row>
+    <row r="41" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>127537.82706687541</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>610583.51516018598</v>
+      </c>
+    </row>
+    <row r="42" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>127537.82706687541</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>1254363.515160186</v>
+      </c>
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3772,12 +3881,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>126641.78711580401</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>629711.41851421306</v>
+      </c>
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>127537.82706687541</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>610583.51516018598</v>
+      </c>
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3797,7 +3922,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3808,7 +3937,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3823,6 +3956,24 @@
       </c>
       <c r="Y46" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3988,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,16 +4006,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +4022,7 @@
         <v>19283.042118970367</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3880,7 +4030,7 @@
         <v>43709.823692218881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3888,15 +4038,15 @@
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762708578561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3904,7 +4054,7 @@
         <v>11938.918689039821</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3912,7 +4062,7 @@
         <v>50983.71612182937</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3920,7 +4070,7 @@
         <v>47726.863400003029</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3928,7 +4078,7 @@
         <v>48220.289169209609</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3936,7 +4086,7 @@
         <v>37682.867713520049</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3944,7 +4094,7 @@
         <v>44827.8721002112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3952,7 +4102,7 @@
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3960,7 +4110,7 @@
         <v>47419.574760442287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -6979,7 +7129,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -7008,7 +7158,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -7037,12 +7187,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -7065,7 +7215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -7094,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -7123,7 +7273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -7152,7 +7302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -7181,7 +7331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -7763,7 +7913,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!X3</f>
-        <v>783086.74014850263</v>
+        <v>685320.49758500769</v>
       </c>
       <c r="D2">
         <f>CAPEX!X4</f>
@@ -7775,7 +7925,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!X6</f>
-        <v>450452.37939566193</v>
+        <v>647978.37939566188</v>
       </c>
       <c r="G2">
         <f>CAPEX!X7</f>
@@ -7783,7 +7933,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!X8</f>
-        <v>882409.14014850277</v>
+        <v>784642.89758500771</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -7795,7 +7945,7 @@
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>542001.60963587556</v>
+        <v>443471.16896909516</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
@@ -7803,7 +7953,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>621293.77874949854</v>
+        <v>419492.25412900344</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -7811,7 +7961,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>482559.26274949865</v>
+        <v>456615.89812900347</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7840,7 +7990,7 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>99322.40000000014</v>
+        <v>99322.400000000023</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
@@ -7932,7 +8082,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>17254</v>
+        <v>214779.99999999994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8172,7 +8322,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>1004</v>
+        <v>198529.99999999994</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8238,19 +8388,19 @@
       </c>
       <c r="L11">
         <f>IF(L2-K2&gt;0,L2-K2,0)</f>
-        <v>0</v>
+        <v>15088.093780403491</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>79292.169113622978</v>
+        <v>-23978.914840091718</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>51030</v>
+        <v>149560.4406667804</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>24000</v>
+        <v>13144.729159908311</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -8292,14 +8442,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>162734.51599999989</v>
+        <v>-39067.008620495209</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>24000</v>
+        <v>-1943.3646204951801</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -8388,7 +8538,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>28262.169113622978</v>
+        <v>-173539.35550687212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8437,7 +8587,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138734.51599999989</v>
+        <v>-37123.644000000029</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_bsg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="765" windowWidth="13680" windowHeight="11130" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="13680" windowHeight="11130" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -1269,11 +1269,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="93586432"/>
-        <c:axId val="83419136"/>
+        <c:axId val="84275712"/>
+        <c:axId val="81605696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93586432"/>
+        <c:axId val="84275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83419136"/>
+        <c:crossAx val="81605696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83419136"/>
+        <c:axId val="81605696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93586432"/>
+        <c:crossAx val="84275712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1876,11 +1876,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="156402176"/>
-        <c:axId val="83423168"/>
+        <c:axId val="84278272"/>
+        <c:axId val="81608000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156402176"/>
+        <c:axId val="84278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83423168"/>
+        <c:crossAx val="81608000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83423168"/>
+        <c:axId val="81608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156402176"/>
+        <c:crossAx val="84278272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,46 +2081,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>3.4104788257342502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>4.3728838415082709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>4.590058257768959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19212.762708578561</c:v>
+                  <c:v>3.5645668399812402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>3.4895950881818525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>5.0622354699274767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>5.2097123546059274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>5.8339957529095674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>4.8658194688768006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>3.6204591866240001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>4.1684192327679996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>5.7307241761280014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>4.4817390217599993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,11 +2140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81170432"/>
-        <c:axId val="83425472"/>
+        <c:axId val="162952704"/>
+        <c:axId val="164259520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81170432"/>
+        <c:axId val="162952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83425472"/>
+        <c:crossAx val="164259520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83425472"/>
+        <c:axId val="164259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81170432"/>
+        <c:crossAx val="162952704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2229,7 +2229,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2265,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2308,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -3987,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,7 +4011,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
+        <v>3.4104788257342502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
+        <v>4.3728838415082709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
+        <v>4.590058257768959</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4043,7 +4043,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>19212.762708578561</v>
+        <v>3.5645668399812402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
+        <v>3.4895950881818525</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
+        <v>5.0622354699274767</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
+        <v>5.2097123546059274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
+        <v>5.8339957529095674</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
+        <v>4.8658194688768006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
+        <v>3.6204591866240001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
+        <v>4.1684192327679996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
+        <v>5.7307241761280014</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
     </row>
   </sheetData>
@@ -4275,31 +4275,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4307,27 +4307,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>1135.5182609782401</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4377,31 +4377,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>1711.5182609782401</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>1795.5182609782401</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>2431.5182609782401</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>1531.5182609782401</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>1603.5182609782401</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>2155.5182609782401</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>1555.9256917984001</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>1632.2893281620363</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>2210.4711463438543</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>1392.2893281620363</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>1457.7438736165818</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>1959.5620554347636</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4488,31 +4488,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>2347.5182609782401</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>2467.5182609782401</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>4639.5182609782396</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>2083.5182609782401</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>2191.5182609782401</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>4147.5182609782396</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -4520,27 +4520,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>1940.0977363456527</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>2039.2712900646609</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>3834.3126123787101</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>1721.9159181638345</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>1811.172116510942</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>3427.7010421307764</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4600,31 +4600,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>3175.5182609782401</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>3511.5182609782401</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>9031.5182609782405</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>2839.5182609782401</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>3151.5182609782401</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -4632,27 +4632,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>2385.81387000619</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>2638.2556431091202</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>6785.513344085829</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>2133.3720969032602</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>2367.7823147845525</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>6091.2984680527707</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4712,31 +4712,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>4339.5182609782396</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>4951.5182609782396</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>17527.518260978239</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>3871.5182609782401</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>4435.5182609782396</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>15763.518260978241</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -4744,27 +4744,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>2963.9493620505691</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>3381.9535967339925</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>11971.530811405119</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>2644.2990649397166</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>3029.5186537656159</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>10766.695076141135</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4824,31 +4824,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>5923.5182609782396</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>6991.5182609782396</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>33823.518260978242</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>5323.5182609782396</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>6271.5182609782396</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>30415.518260978239</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -4856,27 +4856,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>3678.038795771673</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>4341.1827687988507</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>21001.743709122096</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>3305.4860019361799</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>3894.119416196259</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>18885.643840136494</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4936,31 +4936,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>9907.5182609782405</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>63727.518260978242</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>7255.5182609782396</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>8911.5182609782405</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>57331.518260978242</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -4968,27 +4968,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>4576.4826957571522</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>5592.5357698539519</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>35972.522685348245</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>4095.550907351334</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>5030.3197355203902</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>32362.147428724285</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5047,31 +5047,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>11083.518260978241</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>14011.518260978241</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>114535.51826097824</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>9955.5182609782405</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>12571.518260978241</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>103063.51826097824</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -5079,27 +5079,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>5687.5973741792659</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>7190.1243443587746</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>58774.831021382306</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>5108.7550168150292</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>6451.1766541065572</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>52887.881089039642</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5158,31 +5158,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>15139.518260978241</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>19771.518260978239</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>188227.51826097825</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>13603.518260978241</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>17755.518260978239</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>169375.51826097825</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -5190,27 +5190,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>7062.6970015663737</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>9223.5591866978575</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>87809.526427308665</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>6346.1416655642242</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>8283.0803081950344</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>79014.929295594775</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5269,31 +5269,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>20611.518260978239</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>27739.518260978239</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>266971.51826097822</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>18523.518260978239</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>24931.518260978239</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>240259.51826097825</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -5301,27 +5301,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>8741.2958055218478</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>11764.263629280918</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>113221.98506776716</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>7855.7799783600994</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>10573.397516890982</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>101893.48948580136</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5381,31 +5381,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>27955.518260978239</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>38575.518260978242</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>314251.51826097822</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>25123.518260978239</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>34699.518260978242</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>282811.51826097822</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -5413,27 +5413,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>10778.062468044885</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>14872.532201786511</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>121157.56405856203</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>9686.2038723804526</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>13378.166411957647</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>109036.08303889756</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5492,31 +5492,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>37603.518260978242</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>53167.518260978242</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>324391.51826097822</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>33811.518260978242</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>47815.518260978242</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>291943.51826097822</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -5524,27 +5524,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>13179.803749510003</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>18634.890801038393</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>113697.2481939795</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>11850.730882676566</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>16759.047451013983</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>102324.42214360728</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5603,31 +5603,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>50227.518260978242</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>72211.518260978235</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>324847.51826097822</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>45187.518260978242</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>64975.518260978242</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>292327.51826097822</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -5635,27 +5635,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>16004.035215057364</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>23008.815111601842</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>103506.43037467547</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>14398.135893797167</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>20703.202514649704</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>93144.556182734683</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5714,31 +5714,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>66307.518260978235</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>96331.518260978235</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>324931.51826097822</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>59671.518260978242</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>86671.518260978235</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>292411.51826097822</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -5746,27 +5746,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>19206.92614894536</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>27903.809486159673</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>94121.086693966499</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>17284.713325012701</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>25105.651577903271</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>84701.20106492941</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5825,31 +5825,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>86299.518260978235</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>125359.51826097824</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>324967.51826097822</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>77635.518260978235</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>112783.51826097824</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>292435.51826097822</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -5857,27 +5857,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>22725.360389673831</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>33011.079182869304</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>85574.104192397266</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>20443.858402365957</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>29699.425328716046</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>77007.41182731188</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5936,31 +5936,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>110335.51826097824</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>158383.51826097825</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>324991.51826097822</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>99271.518260978235</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>142543.51826097825</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>292459.51826097822</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -5968,27 +5968,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>26413.445834704329</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>37915.755022793899</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>77800.385584091462</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>23764.812200483906</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>34123.784960786346</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>70012.483434013833</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6047,31 +6047,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>137983.51826097825</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>193243.51826097825</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>325003.51826097822</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>124159.51826097824</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>173911.51826097825</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>292471.51826097822</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -6079,27 +6079,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>30029.233832420876</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>42055.419876184482</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>70730.234807894449</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>27020.72865925786</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>37848.213423089328</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>63650.323762369335</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6149,31 +6149,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>168067.51826097825</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>226843.51826097825</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>151255.51826097825</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>204115.51826097825</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -6181,27 +6181,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>33251.262503210637</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>44879.780762484974</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>64302.587597749021</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>29925.09792966157</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>40383.167127722707</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>57866.30482908983</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6251,31 +6251,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>198823.51826097825</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>256219.51826097825</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>178927.51826097825</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>230563.51826097825</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -6283,27 +6283,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>35760.157399911986</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>46083.332505541213</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>58456.897816135468</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>32181.686915878276</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>41468.875391630427</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>52605.731662808932</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6353,31 +6353,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>228079.51826097825</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>279475.51826097822</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>205255.51826097825</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>251527.51826097825</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -6385,27 +6385,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>37292.823779541759</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>45696.480476063516</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>53142.63437830496</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>33560.917396916404</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>41126.759148442885</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>47823.392420735385</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6455,31 +6455,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>253867.51826097825</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>296275.51826097822</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>228475.51826097825</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>266623.51826097822</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -6487,27 +6487,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>37735.788951797309</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>44039.467929045182</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>48311.485798459064</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>33961.429949008256</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>39631.887070873279</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>43475.811291577629</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
